--- a/Black_Hole/reports/report_flip_yeast_20stars_0.02_lam0.007.xlsx
+++ b/Black_Hole/reports/report_flip_yeast_20stars_0.02_lam0.007.xlsx
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2283941498005614</v>
+        <v>0.2211552666568178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5131526137066098</v>
+        <v>0.4925078063300105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5655574152665687</v>
+        <v>0.568910482925479</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2362978283350569</v>
+        <v>0.2385876791254247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5565745071395832</v>
+        <v>0.540672825803569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5417320065032074</v>
+        <v>0.5387972090531562</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
